--- a/資料/プロジェクトスケジュール.xlsx
+++ b/資料/プロジェクトスケジュール.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1" defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K017A1994\Documents\Labyrinth\資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\山内 翔馬\Documents\GitHub\Labyrinth\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" tabRatio="327" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7125" tabRatio="327"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="21" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="28">
   <si>
     <t>日</t>
     <rPh sb="0" eb="1">
@@ -132,13 +132,106 @@
     <t>フィードバック</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>山内</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まとめ→企画書ぽくして
+ステージの構成を考えてきて（ヒントの出方とか？　プレイヤーの立ち回り　ギミックとアイテムの種類）</t>
+    <rPh sb="4" eb="7">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉本</t>
+    <rPh sb="0" eb="1">
+      <t>スギ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの制作（ランダムの作成　動けるステージの配置）</t>
+    <rPh sb="5" eb="7">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enemyの作成　カメラの配置</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関口</t>
+    <rPh sb="0" eb="2">
+      <t>セキグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Labyrinthプロジェクトスケジュール表</t>
+    <rPh sb="21" eb="22">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="d"/>
+    <numFmt numFmtId="176" formatCode="d"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -464,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -627,6 +720,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -673,7 +810,7 @@
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,16 +863,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="24" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="24" fillId="20" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -759,11 +896,53 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="55" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -823,13 +1002,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="12"/>
       </font>
     </dxf>
@@ -852,6 +1024,13 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
       </font>
     </dxf>
     <dxf>
@@ -920,455 +1099,21 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>76879</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>302567</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>557893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ホームベース 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1592035" y="1238250"/>
-          <a:ext cx="1088571" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>217714</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>280337</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>598714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ホームベース 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2367642" y="1986643"/>
-          <a:ext cx="1973037" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>316385</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>585107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ホームベース 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3646714" y="2680607"/>
-          <a:ext cx="1578430" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>13606</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>49676</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>557894</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="ホームベース 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4898570" y="3360965"/>
-          <a:ext cx="3415393" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>　出来た部分より随時デバッグを開始</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>13605</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>126550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>571501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="ホームベース 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7429498" y="4082144"/>
-          <a:ext cx="2653395" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>36056</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>176894</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>343605</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>557894</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="ホームベース 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9987640" y="4776108"/>
-          <a:ext cx="2435681" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
-            <a:t>バグ次第で延長もあり</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>49665</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190502</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>13636</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>571502</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="ホームベース 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12532178" y="5497288"/>
-          <a:ext cx="1224643" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>36059</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>176895</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>13648</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>557895</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="ホームベース 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13784036" y="6191252"/>
-          <a:ext cx="394608" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>321468</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>601266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>13660</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>381001</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="カギ線コネクタ 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
@@ -1405,8 +1150,8 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1450,65 +1195,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>316385</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>585107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="ホームベース 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3405788" y="2675005"/>
-          <a:ext cx="1465789" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1552,65 +1244,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>316385</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>585107</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ホームベース 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3405788" y="2675005"/>
-          <a:ext cx="1465789" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1656,16 +1295,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>27214</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>204107</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313766</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>237725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>316385</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>585107</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>618725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1674,8 +1313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3405788" y="2675005"/>
-          <a:ext cx="1465789" cy="381000"/>
+          <a:off x="6801972" y="1291078"/>
+          <a:ext cx="6364940" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="homePlate">
           <a:avLst/>
@@ -1701,7 +1340,10 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t>企画のアイデア出し　ステージ構想</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1711,8 +1353,8 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>78581</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148828</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -1756,6 +1398,67 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>392205</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>627529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ホームベース 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10611970" y="3417794"/>
+          <a:ext cx="2510118" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="homePlate">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1"/>
+            <a:t>enemy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>の作成　ステージをざっくり</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3812,60 +3515,60 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
+      <selection pane="bottomRight" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="1" customWidth="1"/>
-    <col min="2" max="32" width="5.46484375" customWidth="1"/>
-    <col min="33" max="35" width="6.265625" customWidth="1"/>
-    <col min="36" max="36" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="32" width="5.5" customWidth="1"/>
+    <col min="33" max="35" width="6.25" customWidth="1"/>
+    <col min="36" max="36" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
+      <c r="B1" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -3963,7 +3666,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -4061,301 +3764,267 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="9"/>
+    <row r="4" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="14"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
       <c r="AC4" s="7"/>
-      <c r="AD4" s="8"/>
+      <c r="AD4" s="18"/>
       <c r="AE4" s="14"/>
-      <c r="AF4" s="12"/>
+      <c r="AF4" s="14"/>
     </row>
-    <row r="5" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="9"/>
+    <row r="5" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="7"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="13"/>
       <c r="AC5" s="7"/>
-      <c r="AD5" s="8"/>
+      <c r="AD5" s="18"/>
       <c r="AE5" s="14"/>
-      <c r="AF5" s="12"/>
+      <c r="AF5" s="14"/>
     </row>
-    <row r="6" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A13" s="46">
+        <v>43736</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="40"/>
+      <c r="X13" s="41"/>
     </row>
-    <row r="9" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="44"/>
     </row>
-    <row r="10" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="A15" s="46">
+        <v>43736</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="41"/>
     </row>
-    <row r="11" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="44"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="Y12" s="6"/>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A17" s="46">
+        <v>43736</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="40"/>
+      <c r="X17" s="41"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
     <mergeCell ref="B1:AF1"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="E13:X14"/>
+    <mergeCell ref="E15:X16"/>
+    <mergeCell ref="E17:X18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:XFD3">
@@ -4366,7 +4035,7 @@
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:AF11">
+  <conditionalFormatting sqref="B4:AF5">
     <cfRule type="cellIs" dxfId="10" priority="3" stopIfTrue="1" operator="equal">
       <formula>"休"</formula>
     </cfRule>
@@ -4393,51 +4062,51 @@
       <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="1" customWidth="1"/>
-    <col min="2" max="32" width="5.46484375" customWidth="1"/>
-    <col min="33" max="35" width="6.265625" customWidth="1"/>
-    <col min="36" max="36" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="32" width="5.5" customWidth="1"/>
+    <col min="33" max="35" width="6.25" customWidth="1"/>
+    <col min="36" max="36" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
     </row>
-    <row r="2" spans="1:36" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -4535,7 +4204,7 @@
         <v>43769</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -4557,7 +4226,7 @@
       <c r="G3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -4578,7 +4247,7 @@
       <c r="N3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="P3" s="25" t="s">
@@ -4599,7 +4268,7 @@
       <c r="U3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="V3" s="32" t="s">
+      <c r="V3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="W3" s="25" t="s">
@@ -4620,7 +4289,7 @@
       <c r="AB3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="32" t="s">
+      <c r="AC3" s="31" t="s">
         <v>5</v>
       </c>
       <c r="AD3" s="25" t="s">
@@ -4637,7 +4306,7 @@
       <c r="AI3"/>
       <c r="AJ3"/>
     </row>
-    <row r="4" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
@@ -4673,7 +4342,7 @@
       <c r="AE4" s="14"/>
       <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
@@ -4709,7 +4378,7 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>13</v>
       </c>
@@ -4745,7 +4414,7 @@
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
@@ -4781,7 +4450,7 @@
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
     </row>
-    <row r="8" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
@@ -4817,7 +4486,7 @@
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
     </row>
-    <row r="9" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
@@ -4853,7 +4522,7 @@
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
     </row>
-    <row r="10" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>19</v>
       </c>
@@ -4889,7 +4558,7 @@
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
     </row>
-    <row r="11" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
@@ -4925,7 +4594,7 @@
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="Y12" s="6"/>
     </row>
@@ -4948,7 +4617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F11">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"休"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4967,58 +4636,58 @@
   </sheetPr>
   <dimension ref="A1:AF12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="1" customWidth="1"/>
-    <col min="2" max="32" width="5.46484375" customWidth="1"/>
-    <col min="33" max="35" width="6.265625" customWidth="1"/>
-    <col min="36" max="36" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="32" width="5.5" customWidth="1"/>
+    <col min="33" max="35" width="6.25" customWidth="1"/>
+    <col min="36" max="36" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5116,7 +4785,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -5214,7 +4883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
@@ -5250,7 +4919,7 @@
       <c r="AE4" s="14"/>
       <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
@@ -5286,7 +4955,7 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>13</v>
       </c>
@@ -5322,7 +4991,7 @@
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
@@ -5358,7 +5027,7 @@
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
     </row>
-    <row r="8" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
@@ -5394,7 +5063,7 @@
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
     </row>
-    <row r="9" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
@@ -5430,7 +5099,7 @@
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
     </row>
-    <row r="10" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>19</v>
       </c>
@@ -5466,7 +5135,7 @@
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
     </row>
-    <row r="11" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
@@ -5502,7 +5171,7 @@
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="Y12" s="6"/>
     </row>
@@ -5512,15 +5181,15 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" stopIfTrue="1" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:AF11">
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"休"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5546,51 +5215,51 @@
       <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="1" customWidth="1"/>
-    <col min="2" max="32" width="5.46484375" customWidth="1"/>
-    <col min="33" max="35" width="6.265625" customWidth="1"/>
-    <col min="36" max="36" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="32" width="5.5" customWidth="1"/>
+    <col min="33" max="35" width="6.25" customWidth="1"/>
+    <col min="36" max="36" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
@@ -5688,7 +5357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -5786,7 +5455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
         <v>14</v>
       </c>
@@ -5822,7 +5491,7 @@
       <c r="AE4" s="14"/>
       <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
@@ -5858,7 +5527,7 @@
       <c r="AE5" s="14"/>
       <c r="AF5" s="12"/>
     </row>
-    <row r="6" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>13</v>
       </c>
@@ -5894,7 +5563,7 @@
       <c r="AE6" s="14"/>
       <c r="AF6" s="14"/>
     </row>
-    <row r="7" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
@@ -5930,7 +5599,7 @@
       <c r="AE7" s="14"/>
       <c r="AF7" s="14"/>
     </row>
-    <row r="8" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
@@ -5966,7 +5635,7 @@
       <c r="AE8" s="14"/>
       <c r="AF8" s="14"/>
     </row>
-    <row r="9" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
         <v>17</v>
       </c>
@@ -6002,7 +5671,7 @@
       <c r="AE9" s="14"/>
       <c r="AF9" s="14"/>
     </row>
-    <row r="10" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
         <v>19</v>
       </c>
@@ -6038,7 +5707,7 @@
       <c r="AE10" s="14"/>
       <c r="AF10" s="14"/>
     </row>
-    <row r="11" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
         <v>18</v>
       </c>
@@ -6074,7 +5743,7 @@
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="Y12" s="6"/>
     </row>
@@ -6084,15 +5753,15 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:XFD3">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"日"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <formula>"土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:AF11">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
       <formula>"休"</formula>
     </cfRule>
   </conditionalFormatting>
